--- a/biology/Histoire de la zoologie et de la botanique/Charles_Marie_d'Orbigny/Charles_Marie_d'Orbigny.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Marie_d'Orbigny/Charles_Marie_d'Orbigny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Marie_d%27Orbigny</t>
+          <t>Charles_Marie_d'Orbigny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Marie Dessalines d'Orbigny (ou Dessalines Dorbigny[1]) est un naturaliste français né le 2 janvier 1770 à Saint-Domingue (actuelle Haïti) et mort le 2 octobre 1856 à La Rochelle[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Marie Dessalines d'Orbigny (ou Dessalines Dorbigny) est un naturaliste français né le 2 janvier 1770 à Saint-Domingue (actuelle Haïti) et mort le 2 octobre 1856 à La Rochelle.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Marie_d%27Orbigny</t>
+          <t>Charles_Marie_d'Orbigny</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créole blanc, Charles Marie Dessalines d'Orbigny naît le 2 janvier 1770 dans la colonie française de Saint-Domingue (actuelle République d'Haïti). Issu d'une famille de planteurs esclavagistes, propriétaire de l'habitation des Salines. En 1802, alors qu'il se trouve en métropole pour les études, il échappe à la mort lorsqu'un de leurs anciens esclaves révoltés, Jean-Jacques (Dessalines), se venge en tuant ses anciens maîtres et seize de leurs enfants[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créole blanc, Charles Marie Dessalines d'Orbigny naît le 2 janvier 1770 dans la colonie française de Saint-Domingue (actuelle République d'Haïti). Issu d'une famille de planteurs esclavagistes, propriétaire de l'habitation des Salines. En 1802, alors qu'il se trouve en métropole pour les études, il échappe à la mort lorsqu'un de leurs anciens esclaves révoltés, Jean-Jacques (Dessalines), se venge en tuant ses anciens maîtres et seize de leurs enfants.
 À la suite de ses études, Charles Marie Dessalines d'Orbigny s’engage dans la marine et devient aide-chirurgien. Il quitte l’armée en 1797 avec le grade de médecin-principal. Orbigny se passionne alors pour l’histoire naturelle et devient correspondant du Muséum national d'histoire naturelle et est membre de diverses sociétés savantes. Il participe à la fondation de la Société des sciences naturelles de la Charente-Inférieure.
 Charles d’Orbigny s'installe à Esnandes en 1815 puis s'oppose à une tentative assèchement de la baie de l'Aiguillon par un banquier. Il s'intéresse notamment aux foraminifères, travaux qui seront poursuivis par son fils Alcide Dessalines d'Orbigny (1802-1857).
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles_Marie_d%27Orbigny</t>
+          <t>Charles_Marie_d'Orbigny</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dictionnaire universel d’histoire naturelle, 1847-1849, 13 volumes et 3 volumes d’atlas de 287 planches coloriées. (avec de nombreux collaborateurs : Arago, Audouin, Beaumont, Becquerel, Brébisson, Brongniart, Deshayes, Desmarest, Alcide d’Orbigny, Geoffroy-Saint-Hilaire, Jussieu, Lucas, Milne Edwards, Moquin-Tandon, Prévost, Quatrefages, Valenciennes, Van Beneden, etc. Le discours préliminaire expose le développement des sciences naturelles à travers les âges.)</t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charles_Marie_d%27Orbigny</t>
+          <t>Charles_Marie_d'Orbigny</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean Dhombres (dir.) (1995), Aventures scientifiques. Savants en Poitou-Charentes du XVIe au XXe siècle, Les éditions de l’Actualité Poitou-Charentes (Poitiers), 262 p.  (ISBN 2-911320-00-X)</t>
         </is>
